--- a/data/financial_statements/sofp/NEE.xlsx
+++ b/data/financial_statements/sofp/NEE.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -125,9 +245,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -180,12 +297,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -482,1000 +596,1024 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN35"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>1601000000</v>
+      </c>
+      <c r="C2">
         <v>2508000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>2861000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1477000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>639000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>692000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>884000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>1462000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1105000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1961000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1009000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3335000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>600000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>1131000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1019000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>972000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>638000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>497000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>478000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>550000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>1714000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>1381000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>642000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>600000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>1292000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>681000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>730000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>628000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>571000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>1181000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>551000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>469000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>577000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>485000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>622000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>488000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>438000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>558000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>411000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>215000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>5093000000</v>
+      </c>
+      <c r="C3">
         <v>5329000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5131000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4291000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>4108000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3858000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3402000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3286000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2974000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>3277000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2867000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>2621000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>2807000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>3330000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>3121000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>2974000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>2969000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>3119000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>2891000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>2389000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>2737000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>2750000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>2480000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>2160000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>2439000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>2859000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>2673000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>2267000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>2265000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>2310000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>2139000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>2027000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>2159000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>2411000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>2292000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>2551000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>2289000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>2241000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>2120000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>1759000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>1934000000</v>
+      </c>
+      <c r="C4">
         <v>1791000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1642000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1586000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1561000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1744000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1596000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1604000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1552000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1414000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1367000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>1371000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1328000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1451000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1427000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1410000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1223000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1083000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1159000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>1205000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1273000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>1352000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>1313000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1303000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1289000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1309000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>1254000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>1287000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1259000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1344000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1278000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1249000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>1292000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1269000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>1178000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>1148000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>1153000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1142000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1120000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1098000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>4862000000</v>
+      </c>
+      <c r="C5">
         <v>3263000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4698000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3634000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>2980000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3278000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2179000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1885000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1751000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>2374000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>2338000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2398000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2673000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>1767000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1904000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2866000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>1563000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>3650000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1357000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>1468000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>1457000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>1544000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>1512000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>1764000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>2389000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>1898000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>1855000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>2914000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>2700000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>1812000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1974000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>1944000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>2177000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>1437000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>1612000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>1200000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>1209000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>1523000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>1073000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>963000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>13490000000</v>
+      </c>
+      <c r="C6">
         <v>12891000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>14332000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>10988000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>9288000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>9572000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>8061000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>8237000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>7382000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>9026000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>7581000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>9725000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>7408000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>7679000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>7471000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>8222000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>6393000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>8349000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>5885000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>5612000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>7181000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>7027000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>5947000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>5827000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>7409000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>6747000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>6512000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>7096000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>6795000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>6657000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>6346000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>6297000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>6944000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>5633000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>6099000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>6141000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>5842000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>5472000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>4735000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>4045000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>111059000000</v>
+      </c>
+      <c r="C7">
         <v>108447000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>105393000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>101935000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>99348000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>99141000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>96811000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>94304000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>91803000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>88855000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>86326000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>83873000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>82010000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>78995000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>76136000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>74794000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>70334000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>68572000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>68659000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>67196000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>72289000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>71088000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>69656000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>68400000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>66912000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>65617000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>64157000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>62894000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>61386000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>59835000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>58310000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>56233000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>55705000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>55067000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>54031000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>53306000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>52720000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>51399000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>50460000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>49824000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>6582000000</v>
+      </c>
+      <c r="C8">
         <v>6316000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>6064000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5752000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>6159000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5942000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>5907000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>6049000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>5728000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>7144000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>6957000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>6862000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>7453000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>7180000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>7202000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>6735000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>6748000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>6493000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>6217000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>6774000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>2321000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>2983000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>2950000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>2759000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>2482000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>2380000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>2114000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>1892000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>1786000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>1781000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>1613000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>1527000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>1399000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>1384000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>1262000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>1148000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>1121000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>1085000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>1045000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>981000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>4854000000</v>
+      </c>
+      <c r="C9">
         <v>4872000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>4843000000</v>
-      </c>
-      <c r="D9">
-        <v>4844000000</v>
       </c>
       <c r="E9">
         <v>4844000000</v>
@@ -1484,1834 +1622,1882 @@
         <v>4844000000</v>
       </c>
       <c r="G9">
+        <v>4844000000</v>
+      </c>
+      <c r="H9">
         <v>4846000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>4853000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4254000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>4214000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>4213000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>4201000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>4204000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>4129000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>3496000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>3488000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>891000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>15126000000</v>
+      </c>
+      <c r="C10">
         <v>14603000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>14006000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>14478000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>14452000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>14154000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>13897000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>13470000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>13098000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>12320000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>12131000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>11259000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>11892000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>11502000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>11360000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>10735000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>14762000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>11284000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>10736000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>10646000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>12276000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>11176000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>10924000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>10719000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>10119000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>10123000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>8359000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>9842000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>8377000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>8661000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>8756000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>7469000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>7353000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>6968000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>6953000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>6478000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>7369000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>7087000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>6780000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>5967000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>145445000000</v>
+      </c>
+      <c r="C11">
         <v>143518000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>137438000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>133957000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>131624000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>129591000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>126952000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>124204000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>120302000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>117356000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>114380000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>110912000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>110283000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>106543000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>103081000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>100807000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>97309000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>90254000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>89605000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>88672000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>90782000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>89754000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>86943000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>85378000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>82584000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>81117000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>78908000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>77541000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>75684000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>73306000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>70855000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>68632000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>67661000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>66560000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>65491000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>64190000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>63464000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>61694000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>60482000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>59798000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>158935000000</v>
+      </c>
+      <c r="C12">
         <v>156409000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>151770000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>144945000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>140912000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>139163000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>135013000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>132441000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>127684000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>126382000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>121961000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>120637000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>117691000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>114222000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>110552000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>109029000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>103702000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>98603000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>95490000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>94284000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>97963000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>96781000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>92890000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>91205000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>89993000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>87864000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>85420000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>84637000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>82479000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>79963000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>77201000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>74929000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>74605000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>72193000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>71590000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>70331000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>69306000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>67166000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>65217000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>63843000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13">
         <v>494000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>490000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>800000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>912000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>1137000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>950000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>625000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>8312000000</v>
+      </c>
+      <c r="C14">
         <v>7149000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>7592000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>5894000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>6935000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>5456000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>5506000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>4400000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>4615000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>4744000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>4097000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>3350000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3631000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>2838000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2598000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>2398000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>2386000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3000000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2298000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>1748000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>3235000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>2256000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>1814000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>1237000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>3447000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>2800000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>1774000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>1139000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>2529000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>1870000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>1517000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>1104000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>1354000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>1496000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>1475000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>1450000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>1200000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>1244000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>1279000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>1094000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>2479000000</v>
+      </c>
+      <c r="C15">
         <v>3170000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2609000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2334000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1903000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2553000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1989000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1778000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1510000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>2298000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1891000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>1598000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1710000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>2153000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1715000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>1328000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>1672000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1836000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>1423000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>1493000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>1654000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>1794000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>1290000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>1337000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1600000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>1642000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>1671000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>1473000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>1370000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>1812000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>1410000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>1006000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>1150000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>1587000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>1409000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>1013000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>1312000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>1233000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>1047000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>850000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>9710000000</v>
+      </c>
+      <c r="C16">
         <v>10155000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>10201000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>8719000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>3867000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>7249000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>5763000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>6603000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>6147000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>5502000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3877000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>6090000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>5040000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>5643000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>7770000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>10330000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>10930000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>5539000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>4210000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>4137000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>3615000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>4614000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>4132000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>5325000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>3022000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>2992000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>4507000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>3705000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>3006000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>3523000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>3589000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>4577000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>4657000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>4570000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>4901000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>5691000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>4457000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>4848000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>4718000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>5058000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>6194000000</v>
+      </c>
+      <c r="C17">
         <v>7319000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>6419000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>5476000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>4732000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>5198000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>3560000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>3002000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3286000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>3168000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2500000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2684000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>3472000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>2680000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>2329000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>3870000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>2575000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>2432000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>2253000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>2201000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>2739000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>2940000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>1714000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>1862000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>2850000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>2532000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>2584000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>3358000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>3202000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>2029000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>1955000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>2074000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>2502000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>1919000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1905000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>2138000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>2220000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>1888000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>1823000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1774000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>26695000000</v>
+      </c>
+      <c r="C18">
         <v>27793000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>26821000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>22423000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>17437000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>20456000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>16818000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>15783000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>15558000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>15712000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>12365000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>13722000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>13853000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>13314000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>14412000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>17926000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>17563000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>12807000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>10184000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>9579000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>11243000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>11604000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>8950000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>9761000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>10919000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>10456000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>11336000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>10587000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>10107000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>10371000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>9421000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>9386000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>9663000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>9572000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>9690000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>10292000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>9189000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>9213000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>8867000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>8776000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>55256000000</v>
+      </c>
+      <c r="C19">
         <v>54670000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>53382000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>50974000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>50960000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>48092000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>47559000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>46065000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>41944000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>42794000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>42667000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>41116000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>37543000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>36144000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>33947000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>29883000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>26782000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>27048000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>28356000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>28062000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>31410000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>30345000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>30392000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>28539000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>27818000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>28195000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>27001000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>27791000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>26681000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>25604000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>25235000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>24264000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>24044000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>24853000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>25049000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>23824000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>23969000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>23862000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>23514000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>22866000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20">
         <v>8196000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>8310000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>9261000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>9072000000</v>
+      </c>
+      <c r="C21">
         <v>8725000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>8196000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>8217000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>8310000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>8134000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>8119000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>8256000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>8020000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>8237000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>8070000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>8082000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>8361000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>8109000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>8086000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>8050000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>7367000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>7420000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>7162000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>7007000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>5764000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>12563000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>12102000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>11727000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>11101000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>10582000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>10121000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>9982000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>9827000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>9567000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>9436000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>9337000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>7999000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>8227000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>8306000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>8144000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>7207000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>6861000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>6660000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>1110000000</v>
+      </c>
+      <c r="C22">
         <v>0</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>53000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>203000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>245000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>79000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>165000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>291000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>238000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>487000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>66000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>68000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>71000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>468000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>18476000000</v>
+      </c>
+      <c r="C23">
         <v>18475000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>18764000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>19079000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>18536000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>17755000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>17403000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>16607000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>17233000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>17412000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>16994000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>16604000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>16087000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>16415000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>15613000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>15259000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>14109000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>13990000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>13616000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>13643000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>20015000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>14948000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>14570000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>14709000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>14824000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>13762000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>13080000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>12647000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>12752000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>11595000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>11508000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>11478000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>11469000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>10625000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>10195000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>9749000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>9964000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>9475000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>9374000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>9339000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>83914000000</v>
+      </c>
+      <c r="C24">
         <v>81870000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>80395000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>78473000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>78051000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>74060000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>73081000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>70928000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>67197000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>68608000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>68022000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>66040000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>62478000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>60734000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>57714000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>53263000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>48726000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>48458000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>49134000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>48712000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>57189000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>57856000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>57064000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>54975000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>53743000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>52539000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>50202000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>50420000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>49260000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>46766000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>46179000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>45079000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>44774000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>43477000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>43471000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>41879000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>42077000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>40544000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>39749000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>38865000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>110609000000</v>
+      </c>
+      <c r="C25">
         <v>109663000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>107216000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>100896000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>95488000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>94516000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>89899000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>86711000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>82755000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>84320000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>80387000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>79762000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>76331000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>74048000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>72126000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>71189000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>66289000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>61265000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>59318000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>58291000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>68432000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>69460000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>66014000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>64736000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>64662000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>62995000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>61538000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>61007000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>59367000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>57137000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>55600000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>54465000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>54437000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>53049000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>53161000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>52171000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>51266000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>49757000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>48616000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>47641000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>12720000000</v>
+      </c>
+      <c r="C26">
         <v>12694000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>11309000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>11262000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>11271000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>11259000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>11224000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>11183000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>11222000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>11380000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>11720000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>11668000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>11955000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>11933000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>10542000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>10515000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>10490000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>10470000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>9736000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>9698000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>9100000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>9046000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>9004000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>8951000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>8948000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>9039000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>8703000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>8645000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>8596000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>8494000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>7881000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>7222000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>7179000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>6555000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>6506000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>6451000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>6411000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>5959000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>5590000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>5557000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>20000000</v>
@@ -3338,7 +3524,7 @@
         <v>20000000</v>
       </c>
       <c r="J27">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
       <c r="K27">
         <v>5000000</v>
@@ -3347,10 +3533,10 @@
         <v>5000000</v>
       </c>
       <c r="M27">
+        <v>5000000</v>
+      </c>
+      <c r="N27">
         <v>20000000</v>
-      </c>
-      <c r="N27">
-        <v>5000000</v>
       </c>
       <c r="O27">
         <v>5000000</v>
@@ -3404,7 +3590,7 @@
         <v>5000000</v>
       </c>
       <c r="AF27">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
       <c r="AG27">
         <v>4000000</v>
@@ -3430,522 +3616,534 @@
       <c r="AN27">
         <v>4000000</v>
       </c>
+      <c r="AO27">
+        <v>4000000</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>26707000000</v>
+      </c>
+      <c r="C28">
         <v>26029000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>25169000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>24625000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>25911000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>25464000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>25773000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>26273000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>25363000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>26054000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>25511000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>24922000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>25199000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>24835000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>24554000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>23919000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>23837000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>23935000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>23453000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>23181000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>19020000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>17299000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>16914000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>16581000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>15458000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>14899000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>14548000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>14375000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>14140000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>13987000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>13456000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>13082000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>12773000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>12204000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>11860000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>11684000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>11569000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>11528000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>11109000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>10777000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>48326000000</v>
+      </c>
+      <c r="C29">
         <v>46746000000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>44554000000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>44049000000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>45424000000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>44647000000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>45114000000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>45730000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>44929000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>42062000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>41574000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>40875000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>41360000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>40174000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>38426000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>37840000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>37413000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>37338000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>36172000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>35993000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>29531000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>27321000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>26876000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>26469000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>25331000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>24869000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>23882000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>23630000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>23112000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>22826000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>21601000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>20464000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>20168000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>19144000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>18429000000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>18160000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>18040000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>17409000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>16601000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>16202000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>48326000000</v>
+      </c>
+      <c r="C30">
         <v>46746000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>44554000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>44049000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>45424000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>44647000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>45114000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>45730000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>44929000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>42062000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>41574000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>40875000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>41360000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>40174000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>38426000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>37840000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>37413000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>37338000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>36172000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>35993000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>29531000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>27321000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>26876000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>26469000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>25331000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>24869000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>23882000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>23630000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>23112000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>22826000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>21601000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>20464000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>20168000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>19144000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>18429000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>18160000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>18040000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>17409000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>16601000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>16202000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>158935000000</v>
+      </c>
+      <c r="C31">
         <v>156409000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>151770000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>144945000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>140912000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>139163000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>135013000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>132441000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>127684000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>126382000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>121961000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>120637000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>117691000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>114222000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>110552000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>109029000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>103702000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>98603000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>95490000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>94284000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>97963000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>96781000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>92890000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>91205000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>89993000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>87864000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>85420000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>84637000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>82479000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>79963000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>77201000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>74929000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>74605000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>72193000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>71590000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>70331000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>69306000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>67166000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>65217000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>63843000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>1987000000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1965000000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1964000000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>1963000000</v>
-      </c>
-      <c r="F32">
-        <v>1962000000</v>
       </c>
       <c r="G32">
         <v>1962000000</v>
       </c>
       <c r="H32">
+        <v>1962000000</v>
+      </c>
+      <c r="I32">
         <v>1961000000</v>
-      </c>
-      <c r="I32">
-        <v>1960000000</v>
       </c>
       <c r="J32">
         <v>1960000000</v>
@@ -3954,7 +4152,7 @@
         <v>1960000000</v>
       </c>
       <c r="L32">
-        <v>1956000000</v>
+        <v>1960000000</v>
       </c>
       <c r="M32">
         <v>1956000000</v>
@@ -3963,46 +4161,46 @@
         <v>1956000000</v>
       </c>
       <c r="O32">
-        <v>1916000000</v>
+        <v>1956000000</v>
       </c>
       <c r="P32">
         <v>1916000000</v>
       </c>
       <c r="Q32">
-        <v>1912000000</v>
+        <v>1916000000</v>
       </c>
       <c r="R32">
         <v>1912000000</v>
       </c>
       <c r="S32">
+        <v>1912000000</v>
+      </c>
+      <c r="T32">
         <v>1888000000</v>
-      </c>
-      <c r="T32">
-        <v>1884000000</v>
       </c>
       <c r="U32">
         <v>1884000000</v>
       </c>
       <c r="V32">
+        <v>1884000000</v>
+      </c>
+      <c r="W32">
         <v>1880000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>1876000000</v>
-      </c>
-      <c r="X32">
-        <v>1872000000</v>
       </c>
       <c r="Y32">
         <v>1872000000</v>
       </c>
       <c r="Z32">
+        <v>1872000000</v>
+      </c>
+      <c r="AA32">
         <v>1868000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>1848000000</v>
-      </c>
-      <c r="AB32">
-        <v>1844000000</v>
       </c>
       <c r="AC32">
         <v>1844000000</v>
@@ -4011,16 +4209,16 @@
         <v>1844000000</v>
       </c>
       <c r="AE32">
+        <v>1844000000</v>
+      </c>
+      <c r="AF32">
         <v>1808000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>1776000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>1772000000</v>
-      </c>
-      <c r="AH32">
-        <v>1744000000</v>
       </c>
       <c r="AI32">
         <v>1744000000</v>
@@ -4029,381 +4227,393 @@
         <v>1744000000</v>
       </c>
       <c r="AK32">
+        <v>1744000000</v>
+      </c>
+      <c r="AL32">
         <v>1740000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>1724000000</v>
-      </c>
-      <c r="AM32">
-        <v>1700000000</v>
       </c>
       <c r="AN32">
         <v>1700000000</v>
       </c>
+      <c r="AO32">
+        <v>1700000000</v>
+      </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>43472000000</v>
+      </c>
+      <c r="C33">
         <v>41874000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>39711000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>39205000000</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>40580000000</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>39803000000</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>40268000000</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>40877000000</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>40675000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>37848000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>37361000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>36674000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>37156000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>36045000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>34930000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>34352000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>36522000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>37338000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>36172000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>35993000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>29531000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>27321000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>26876000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>26469000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>25331000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>24869000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>23882000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>23630000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>23112000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>22826000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>21601000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>20464000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>20168000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>19144000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>18429000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>18160000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>18040000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>17409000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>16601000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>16202000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>63365000000</v>
+      </c>
+      <c r="C34">
         <v>62317000000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>60722000000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>58216000000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>54188000000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>54649000000</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>52438000000</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>51206000000</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>46986000000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>46335000000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>45535000000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>43871000000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>41983000000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>40656000000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>40698000000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>39241000000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>37074000000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>32090000000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>32088000000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>31649000000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>33311000000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>33578000000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>33882000000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>33264000000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>29548000000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>30506000000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>30778000000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>30868000000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>29116000000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>27946000000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>28273000000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>28372000000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>28124000000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>28938000000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>29328000000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>29027000000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>27988000000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>28152000000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>27821000000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>27709000000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B35">
+        <v>64966000000</v>
+      </c>
+      <c r="C35">
         <v>64825000000</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>63583000000</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>59693000000</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>54827000000</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>55341000000</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>53322000000</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>52668000000</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>48091000000</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>48296000000</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>46544000000</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>47206000000</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>42583000000</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>41787000000</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>41717000000</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>40213000000</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>37712000000</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>32587000000</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>32566000000</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>32199000000</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>35025000000</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>34959000000</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>34524000000</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>33864000000</v>
       </c>
-      <c r="Y35">
+      <c r="Z35">
         <v>30840000000</v>
       </c>
-      <c r="Z35">
+      <c r="AA35">
         <v>31187000000</v>
       </c>
-      <c r="AA35">
+      <c r="AB35">
         <v>31508000000</v>
       </c>
-      <c r="AB35">
+      <c r="AC35">
         <v>31496000000</v>
       </c>
-      <c r="AC35">
+      <c r="AD35">
         <v>29687000000</v>
       </c>
-      <c r="AD35">
+      <c r="AE35">
         <v>29127000000</v>
       </c>
-      <c r="AE35">
+      <c r="AF35">
         <v>28824000000</v>
       </c>
-      <c r="AF35">
+      <c r="AG35">
         <v>28841000000</v>
       </c>
-      <c r="AG35">
+      <c r="AH35">
         <v>28701000000</v>
       </c>
-      <c r="AH35">
+      <c r="AI35">
         <v>29423000000</v>
       </c>
-      <c r="AI35">
+      <c r="AJ35">
         <v>29950000000</v>
       </c>
-      <c r="AJ35">
+      <c r="AK35">
         <v>29515000000</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <v>28426000000</v>
       </c>
-      <c r="AL35">
+      <c r="AM35">
         <v>28710000000</v>
       </c>
-      <c r="AM35">
+      <c r="AN35">
         <v>28232000000</v>
       </c>
-      <c r="AN35">
+      <c r="AO35">
         <v>27924000000</v>
       </c>
     </row>
